--- a/teaching/traditional_assets/database/data/malaysia/malaysia_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.068665</v>
+        <v>0.0883</v>
       </c>
       <c r="E2">
-        <v>0.07829999999999999</v>
+        <v>0.09619999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.04600000000000001</v>
       </c>
       <c r="G2">
-        <v>0.1026427061310782</v>
+        <v>0.1268072289156627</v>
       </c>
       <c r="H2">
-        <v>0.1026427061310782</v>
+        <v>0.1268072289156627</v>
       </c>
       <c r="I2">
-        <v>0.08811819916151552</v>
+        <v>0.1994164156626506</v>
       </c>
       <c r="J2">
-        <v>0.07010137041456607</v>
+        <v>0.1570481353462966</v>
       </c>
       <c r="K2">
-        <v>254.2</v>
+        <v>157.89</v>
       </c>
       <c r="L2">
-        <v>0.3358879492600423</v>
+        <v>0.2972326807228915</v>
       </c>
       <c r="M2">
-        <v>177.25</v>
+        <v>119.61</v>
       </c>
       <c r="N2">
-        <v>0.04777112979732643</v>
+        <v>0.04232933432423824</v>
       </c>
       <c r="O2">
-        <v>0.6972856018882769</v>
+        <v>0.7575527265817975</v>
       </c>
       <c r="P2">
-        <v>165.16</v>
+        <v>86.81</v>
       </c>
       <c r="Q2">
-        <v>0.04451272100043122</v>
+        <v>0.0307215911101674</v>
       </c>
       <c r="R2">
-        <v>0.6497246262785208</v>
+        <v>0.5498131610614986</v>
       </c>
       <c r="S2">
-        <v>12.09</v>
+        <v>32.8</v>
       </c>
       <c r="T2">
-        <v>0.06820874471086034</v>
+        <v>0.274224563163615</v>
       </c>
       <c r="U2">
-        <v>551.0699999999999</v>
+        <v>190</v>
       </c>
       <c r="V2">
-        <v>0.1485203751617076</v>
+        <v>0.06723997593516651</v>
       </c>
       <c r="W2">
-        <v>0.1331504581147789</v>
+        <v>0.1149786660678195</v>
       </c>
       <c r="X2">
-        <v>0.03910192140178401</v>
+        <v>0.03007806254876341</v>
       </c>
       <c r="Y2">
-        <v>0.0940485367129949</v>
+        <v>0.08490060351905604</v>
       </c>
       <c r="Z2">
-        <v>0.1611299284135383</v>
+        <v>0.1676857659659767</v>
       </c>
       <c r="AA2">
-        <v>0.0008719031112119264</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03287751490912975</v>
+        <v>0.02560421492435847</v>
       </c>
       <c r="AC2">
-        <v>-0.03200561179791783</v>
+        <v>-0.02560421492435847</v>
       </c>
       <c r="AD2">
-        <v>3375.8</v>
+        <v>2526.01</v>
       </c>
       <c r="AE2">
-        <v>10.89073437282525</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3386.690734372825</v>
+        <v>2526.01</v>
       </c>
       <c r="AG2">
-        <v>2835.620734372826</v>
+        <v>2336.01</v>
       </c>
       <c r="AH2">
-        <v>0.4771942280476015</v>
+        <v>0.4720005381457516</v>
       </c>
       <c r="AI2">
-        <v>0.5420708031753749</v>
+        <v>0.7364868607882069</v>
       </c>
       <c r="AJ2">
-        <v>0.4331823636737238</v>
+        <v>0.4525651382971922</v>
       </c>
       <c r="AK2">
-        <v>0.4977724280050769</v>
+        <v>0.721033023541504</v>
       </c>
       <c r="AL2">
-        <v>9.028</v>
+        <v>7.638999999999999</v>
       </c>
       <c r="AM2">
-        <v>9.028</v>
+        <v>7.638999999999999</v>
       </c>
       <c r="AN2">
-        <v>46.47109838525392</v>
+        <v>22.99508420573509</v>
       </c>
       <c r="AO2">
-        <v>6.835400974745236</v>
+        <v>13.86699829820657</v>
       </c>
       <c r="AP2">
-        <v>39.03501692348644</v>
+        <v>21.26545289030496</v>
       </c>
       <c r="AQ2">
-        <v>6.835400974745236</v>
+        <v>13.86699829820657</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.008329999999999999</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="E3">
-        <v>0.0144</v>
+        <v>0.09619999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.07200000000000001</v>
       </c>
       <c r="G3">
-        <v>0.6507537688442211</v>
+        <v>0.3962940824865511</v>
       </c>
       <c r="H3">
-        <v>0.6507537688442211</v>
+        <v>0.3962940824865511</v>
       </c>
       <c r="I3">
-        <v>0.5301507537688441</v>
+        <v>0.6264196054991034</v>
       </c>
       <c r="J3">
-        <v>0.3965628459253478</v>
+        <v>0.463163530706866</v>
       </c>
       <c r="K3">
-        <v>45.9</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="L3">
-        <v>0.3844221105527638</v>
+        <v>0.4578601315002988</v>
       </c>
       <c r="M3">
-        <v>42.4</v>
+        <v>53.3</v>
       </c>
       <c r="N3">
-        <v>0.03526280771789753</v>
+        <v>0.03189897659943743</v>
       </c>
       <c r="O3">
-        <v>0.9237472766884531</v>
+        <v>0.695822454308094</v>
       </c>
       <c r="P3">
-        <v>42.4</v>
+        <v>53.3</v>
       </c>
       <c r="Q3">
-        <v>0.03526280771789753</v>
+        <v>0.03189897659943743</v>
       </c>
       <c r="R3">
-        <v>0.9237472766884531</v>
+        <v>0.695822454308094</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +779,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>82.09999999999999</v>
+        <v>126.6</v>
       </c>
       <c r="V3">
-        <v>0.06828010645375913</v>
+        <v>0.0757675504219283</v>
       </c>
       <c r="W3">
-        <v>0.2393117831074035</v>
+        <v>0.4372146118721461</v>
       </c>
       <c r="X3">
-        <v>0.02875930182575498</v>
+        <v>0.01896771930379554</v>
       </c>
       <c r="Y3">
-        <v>0.2105524812816486</v>
+        <v>0.4182468925683506</v>
       </c>
       <c r="Z3">
-        <v>1.145653425446171</v>
+        <v>1.972877358490566</v>
       </c>
       <c r="AA3">
-        <v>0.454323582839057</v>
+        <v>0.9137648430101261</v>
       </c>
       <c r="AB3">
-        <v>0.0287597950567575</v>
+        <v>0.0189721443182694</v>
       </c>
       <c r="AC3">
-        <v>0.4255637877822995</v>
+        <v>0.8947926986918566</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AG3">
-        <v>-80.09999999999999</v>
+        <v>-124.59</v>
       </c>
       <c r="AH3">
-        <v>0.001660577881102624</v>
+        <v>0.001201499184056524</v>
       </c>
       <c r="AI3">
-        <v>0.01128668171557562</v>
+        <v>0.01047911996246285</v>
       </c>
       <c r="AJ3">
-        <v>-0.07137129109863671</v>
+        <v>-0.08057245959736403</v>
       </c>
       <c r="AK3">
-        <v>-0.8422712933753943</v>
+        <v>-1.910596534273884</v>
       </c>
       <c r="AL3">
-        <v>0.128</v>
+        <v>0.129</v>
       </c>
       <c r="AM3">
-        <v>0.128</v>
+        <v>0.129</v>
       </c>
       <c r="AN3">
-        <v>0.03034901365705614</v>
+        <v>0.01866295264623955</v>
       </c>
       <c r="AO3">
-        <v>494.5312499999999</v>
+        <v>812.4031007751937</v>
       </c>
       <c r="AP3">
-        <v>-1.215477996965098</v>
+        <v>-1.156824512534819</v>
       </c>
       <c r="AQ3">
-        <v>494.5312499999999</v>
+        <v>812.4031007751937</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +865,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.255</v>
+        <v>0.197</v>
       </c>
       <c r="E4">
-        <v>0.163</v>
+        <v>0.0815</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -871,34 +877,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0111099091460153</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008367463104566476</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.390000000000001</v>
+        <v>6.75</v>
       </c>
       <c r="L4">
-        <v>0.3142322097378277</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="M4">
-        <v>4.96</v>
+        <v>5.18</v>
       </c>
       <c r="N4">
-        <v>0.04143692564745196</v>
+        <v>0.04832089552238806</v>
       </c>
       <c r="O4">
-        <v>0.5911799761620977</v>
+        <v>0.7674074074074073</v>
       </c>
       <c r="P4">
-        <v>4.96</v>
+        <v>5.18</v>
       </c>
       <c r="Q4">
-        <v>0.04143692564745196</v>
+        <v>0.04832089552238806</v>
       </c>
       <c r="R4">
-        <v>0.5911799761620977</v>
+        <v>0.7674074074074073</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,67 +913,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>9.67</v>
+        <v>11.5</v>
       </c>
       <c r="V4">
-        <v>0.08078529657477025</v>
+        <v>0.1072761194029851</v>
       </c>
       <c r="W4">
-        <v>0.08578732106339469</v>
+        <v>0.06736526946107785</v>
       </c>
       <c r="X4">
-        <v>0.03249955759263606</v>
+        <v>0.02269774371605136</v>
       </c>
       <c r="Y4">
-        <v>0.05328776347075863</v>
+        <v>0.04466752574502649</v>
       </c>
       <c r="Z4">
-        <v>0.2281625629598608</v>
+        <v>0.1618978391594528</v>
       </c>
       <c r="AA4">
-        <v>0.001909141827409961</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03132587801607407</v>
+        <v>0.02268184509868598</v>
       </c>
       <c r="AC4">
-        <v>-0.02941673618866411</v>
+        <v>-0.02268184509868598</v>
       </c>
       <c r="AD4">
-        <v>60.8</v>
+        <v>54.6</v>
       </c>
       <c r="AE4">
-        <v>1.101827129006958</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>61.90182712900695</v>
+        <v>54.6</v>
       </c>
       <c r="AG4">
-        <v>52.23182712900695</v>
+        <v>43.1</v>
       </c>
       <c r="AH4">
-        <v>0.3408656625741596</v>
+        <v>0.3374536464771323</v>
       </c>
       <c r="AI4">
-        <v>0.3818700148255767</v>
+        <v>0.3475493316359007</v>
       </c>
       <c r="AJ4">
-        <v>0.3037938234077826</v>
+        <v>0.2867598137059215</v>
       </c>
       <c r="AK4">
-        <v>0.342656964183745</v>
+        <v>0.2960164835164835</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>117.6015473887814</v>
-      </c>
-      <c r="AP4">
-        <v>101.0286791663577</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +978,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Malaysia Building Society Berhad (KLSE:MBSB)</t>
+          <t>RCE Capital Berhad (KLSE:RCECAP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -987,10 +987,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0706</v>
+        <v>0.11</v>
       </c>
       <c r="E5">
-        <v>-0.08740000000000001</v>
+        <v>0.216</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,103 +1002,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005207609214499294</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.004160981872369534</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>114.2</v>
+        <v>27.7</v>
       </c>
       <c r="L5">
-        <v>0.4814502529510962</v>
+        <v>0.5782881002087683</v>
       </c>
       <c r="M5">
-        <v>76.3</v>
+        <v>10.23</v>
       </c>
       <c r="N5">
-        <v>0.0560740795178952</v>
+        <v>0.04182338511856092</v>
       </c>
       <c r="O5">
-        <v>0.6681260945709282</v>
+        <v>0.3693140794223827</v>
       </c>
       <c r="P5">
-        <v>76.3</v>
+        <v>9.33</v>
       </c>
       <c r="Q5">
-        <v>0.0560740795178952</v>
+        <v>0.03814390842191333</v>
       </c>
       <c r="R5">
-        <v>0.6681260945709282</v>
+        <v>0.3368231046931408</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.08797653958944285</v>
       </c>
       <c r="U5">
-        <v>400.9</v>
+        <v>12.6</v>
       </c>
       <c r="V5">
-        <v>0.2946277651208936</v>
+        <v>0.05151267375306623</v>
       </c>
       <c r="W5">
-        <v>0.06231583542507912</v>
+        <v>0.1842980705256154</v>
       </c>
       <c r="X5">
-        <v>0.03374522053631866</v>
+        <v>0.03007806254876341</v>
       </c>
       <c r="Y5">
-        <v>0.02857061488876047</v>
+        <v>0.154220007976852</v>
       </c>
       <c r="Z5">
-        <v>0.1236979786822875</v>
+        <v>0.1008633396504527</v>
       </c>
       <c r="AA5">
-        <v>0.0005147050469457512</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03183276254086916</v>
+        <v>0.02560421492435847</v>
       </c>
       <c r="AC5">
-        <v>-0.03131805749392341</v>
+        <v>-0.02560421492435847</v>
       </c>
       <c r="AD5">
-        <v>934.9</v>
+        <v>370.5</v>
       </c>
       <c r="AE5">
-        <v>2.373775471603838</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>937.2737754716038</v>
+        <v>370.5</v>
       </c>
       <c r="AG5">
-        <v>536.3737754716038</v>
+        <v>357.9</v>
       </c>
       <c r="AH5">
-        <v>0.4078696569456067</v>
+        <v>0.6023410827507722</v>
       </c>
       <c r="AI5">
-        <v>0.3224557855033224</v>
+        <v>0.6821948075860799</v>
       </c>
       <c r="AJ5">
-        <v>0.2827374361538806</v>
+        <v>0.5940248962655601</v>
       </c>
       <c r="AK5">
-        <v>0.214055147644226</v>
+        <v>0.6746465598491989</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>546.7251461988304</v>
-      </c>
-      <c r="AP5">
-        <v>313.6688745447976</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1103,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AEON Credit Service (M) Berhad (KLSE:AEONCR)</t>
+          <t>Johan Holdings Berhad (KLSE:JOHAN)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1115,115 +1112,115 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.13</v>
-      </c>
-      <c r="E6">
-        <v>0.07829999999999999</v>
+        <v>-0.171</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.05120772946859904</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.05120772946859904</v>
       </c>
       <c r="I6">
-        <v>0.01052943578149985</v>
+        <v>0.05458937198067632</v>
       </c>
       <c r="J6">
-        <v>0.007916954411764177</v>
+        <v>0.05458937198067632</v>
       </c>
       <c r="K6">
-        <v>69.7</v>
+        <v>-4.36</v>
       </c>
       <c r="L6">
-        <v>0.2297297297297297</v>
+        <v>-0.2106280193236715</v>
       </c>
       <c r="M6">
-        <v>41.8</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.04773324197784629</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.5997130559540889</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>30.8</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.03517186250999201</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.4418938307030129</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>11</v>
-      </c>
-      <c r="T6">
-        <v>0.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>28.4</v>
+        <v>23.4</v>
       </c>
       <c r="V6">
-        <v>0.0324311978988238</v>
+        <v>0.5749385749385748</v>
       </c>
       <c r="W6">
-        <v>0.1826519916142558</v>
+        <v>-0.2812903225806452</v>
       </c>
       <c r="X6">
-        <v>0.04445862226724936</v>
+        <v>0.03964647239213256</v>
       </c>
       <c r="Y6">
-        <v>0.1381933693470064</v>
+        <v>-0.3209367949727777</v>
       </c>
       <c r="Z6">
-        <v>0.1552492425182747</v>
+        <v>0.1375415282392027</v>
       </c>
       <c r="AA6">
-        <v>0.001229101175478102</v>
+        <v>0.007508305647840531</v>
       </c>
       <c r="AB6">
-        <v>0.03392226727739035</v>
+        <v>0.03314898889216905</v>
       </c>
       <c r="AC6">
-        <v>-0.03269316610191225</v>
+        <v>-0.02564068324432852</v>
       </c>
       <c r="AD6">
-        <v>1889.4</v>
+        <v>114.7</v>
       </c>
       <c r="AE6">
-        <v>6.776845919464733</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1896.176845919465</v>
+        <v>114.7</v>
       </c>
       <c r="AG6">
-        <v>1867.776845919465</v>
+        <v>91.30000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.6840768732964686</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="AI6">
-        <v>0.8098208825869739</v>
+        <v>0.9095955590800952</v>
       </c>
       <c r="AJ6">
-        <v>0.6808064914772362</v>
+        <v>0.6916666666666668</v>
       </c>
       <c r="AK6">
-        <v>0.807485859890232</v>
+        <v>0.8889970788704965</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>7.51</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>7.51</v>
       </c>
       <c r="AN6">
-        <v>415.2527472527473</v>
+        <v>53.34883720930233</v>
+      </c>
+      <c r="AO6">
+        <v>0.1504660452729694</v>
       </c>
       <c r="AP6">
-        <v>410.5004056965857</v>
+        <v>42.46511627906978</v>
+      </c>
+      <c r="AQ6">
+        <v>0.1504660452729694</v>
       </c>
     </row>
     <row r="7">
@@ -1234,7 +1231,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RCE Capital Berhad (KLSE:RCECAP)</t>
+          <t>AEON Credit Service (M) Berhad (KLSE:AEONCR)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1242,12 +1239,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D7">
-        <v>0.129</v>
-      </c>
-      <c r="E7">
-        <v>0.188</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1261,219 +1252,91 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>23.9</v>
+        <v>51.2</v>
       </c>
       <c r="L7">
-        <v>0.5311111111111111</v>
+        <v>0.189069423929099</v>
       </c>
       <c r="M7">
-        <v>11.79</v>
+        <v>50.9</v>
       </c>
       <c r="N7">
-        <v>0.08391459074733096</v>
+        <v>0.06677161222615768</v>
       </c>
       <c r="O7">
-        <v>0.4933054393305439</v>
+        <v>0.9941406249999999</v>
       </c>
       <c r="P7">
-        <v>10.7</v>
+        <v>19</v>
       </c>
       <c r="Q7">
-        <v>0.07615658362989323</v>
+        <v>0.02492457037911584</v>
       </c>
       <c r="R7">
-        <v>0.4476987447698745</v>
+        <v>0.37109375</v>
       </c>
       <c r="S7">
-        <v>1.09</v>
+        <v>31.9</v>
       </c>
       <c r="T7">
-        <v>0.09245122985581</v>
+        <v>0.6267190569744597</v>
       </c>
       <c r="U7">
-        <v>17.3</v>
+        <v>15.9</v>
       </c>
       <c r="V7">
-        <v>0.1231316725978648</v>
+        <v>0.02085792994883904</v>
       </c>
       <c r="W7">
-        <v>0.1805135951661631</v>
+        <v>0.1149786660678195</v>
       </c>
       <c r="X7">
-        <v>0.04698767974584132</v>
+        <v>0.03806623105228851</v>
       </c>
       <c r="Y7">
-        <v>0.1335259154203218</v>
+        <v>0.07691243501553094</v>
       </c>
       <c r="Z7">
-        <v>0.1002897258747493</v>
+        <v>0.1174175085635</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0341593339749225</v>
+        <v>0.02692928033325862</v>
       </c>
       <c r="AC7">
-        <v>-0.0341593339749225</v>
+        <v>-0.02692928033325862</v>
       </c>
       <c r="AD7">
-        <v>353.2</v>
+        <v>1984.2</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>353.2</v>
+        <v>1984.2</v>
       </c>
       <c r="AG7">
-        <v>335.9</v>
+        <v>1968.3</v>
       </c>
       <c r="AH7">
-        <v>0.7154142191614341</v>
+        <v>0.7224467504096123</v>
       </c>
       <c r="AI7">
-        <v>0.7014895729890764</v>
+        <v>0.8227391466600324</v>
       </c>
       <c r="AJ7">
-        <v>0.7050797649034425</v>
+        <v>0.7208305866842453</v>
       </c>
       <c r="AK7">
-        <v>0.6908679555738378</v>
+        <v>0.8215627347858752</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Johan Holdings Berhad (KLSE:JOHAN)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>-0.143</v>
-      </c>
-      <c r="G8">
-        <v>-0.000796812749003984</v>
-      </c>
-      <c r="H8">
-        <v>-0.000796812749003984</v>
-      </c>
-      <c r="I8">
-        <v>-0.05333295500198977</v>
-      </c>
-      <c r="J8">
-        <v>-0.05333295500198977</v>
-      </c>
-      <c r="K8">
-        <v>-7.89</v>
-      </c>
-      <c r="L8">
-        <v>-0.3143426294820717</v>
-      </c>
-      <c r="M8">
-        <v>-0</v>
-      </c>
-      <c r="N8">
-        <v>-0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>-0</v>
-      </c>
-      <c r="Q8">
-        <v>-0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>12.7</v>
-      </c>
-      <c r="V8">
-        <v>1.114035087719298</v>
-      </c>
-      <c r="W8">
-        <v>-0.2838129496402877</v>
-      </c>
-      <c r="X8">
-        <v>0.1153968266913055</v>
-      </c>
-      <c r="Y8">
-        <v>-0.3992097763315932</v>
-      </c>
-      <c r="Z8">
-        <v>0.1618954947930678</v>
-      </c>
-      <c r="AA8">
-        <v>-0.008634365138823555</v>
-      </c>
-      <c r="AB8">
-        <v>0.0399353478000177</v>
-      </c>
-      <c r="AC8">
-        <v>-0.04856971293884126</v>
-      </c>
-      <c r="AD8">
-        <v>135.5</v>
-      </c>
-      <c r="AE8">
-        <v>0.6382858527497164</v>
-      </c>
-      <c r="AF8">
-        <v>136.1382858527497</v>
-      </c>
-      <c r="AG8">
-        <v>123.4382858527497</v>
-      </c>
-      <c r="AH8">
-        <v>0.9227319205038226</v>
-      </c>
-      <c r="AI8">
-        <v>0.8685707203704334</v>
-      </c>
-      <c r="AJ8">
-        <v>0.9154542797106648</v>
-      </c>
-      <c r="AK8">
-        <v>0.8569824690842309</v>
-      </c>
-      <c r="AL8">
-        <v>8.9</v>
-      </c>
-      <c r="AM8">
-        <v>8.9</v>
-      </c>
-      <c r="AN8">
-        <v>-3985.294117647062</v>
-      </c>
-      <c r="AO8">
-        <v>-0.1786516853932584</v>
-      </c>
-      <c r="AP8">
-        <v>-3630.537819198523</v>
-      </c>
-      <c r="AQ8">
-        <v>-0.1786516853932584</v>
       </c>
     </row>
   </sheetData>
